--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DT_2024\money_diary\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1CEB0F-2A1D-4486-BB45-1B9E20DC33A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A34CD7-8AD6-459A-AAE2-681012154B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07D54D4-9DE5-4A68-ACFD-E8F7F42E9555}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D07D54D4-9DE5-4A68-ACFD-E8F7F42E9555}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="1" r:id="rId1"/>
@@ -406,20 +406,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FK(名称：user_on_wallet、参照：users.user_id)</t>
-    <rPh sb="3" eb="5">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FK(名称：user_on_category、参照：users.user_id)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>icon_name</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -649,6 +635,20 @@
     <rPh sb="9" eb="11">
       <t>イッパン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK(名称：user_on_wallet、参照：users.user_id、ON DELETE CASCADE)</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK(名称：user_on_category、参照：users.user_id)、ON DELERTE CASCADE</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1205,23 +1205,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C952C-F8EA-49A4-89CF-719587F6C735}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -1255,7 +1255,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1333,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1356,18 +1356,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1408,15 +1408,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
@@ -1431,15 +1431,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1517,19 +1517,19 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -1563,7 +1563,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1638,15 +1638,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1658,15 +1658,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -1678,15 +1678,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -1698,10 +1698,10 @@
         <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1760,24 +1760,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F50DFD-2D39-4616-A0BA-E95DE63C473B}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -1808,10 +1808,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>45314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -1886,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1906,10 +1906,10 @@
         <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1929,15 +1929,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -1949,15 +1949,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -1972,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2080,24 +2080,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905A2CFD-3D03-4235-B041-57A90EEC3ADA}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="69.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -2128,10 +2128,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>45314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -2206,7 +2206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2226,10 +2226,10 @@
         <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2249,15 +2249,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -2269,7 +2269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2355,19 +2355,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -2401,7 +2401,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2412,10 +2412,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -2476,7 +2476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2568,10 +2568,10 @@
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2608,27 +2608,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
         <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
       </c>
       <c r="H13">
         <v>255</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2688,19 +2688,19 @@
       <selection activeCell="A6" sqref="A6:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -2734,7 +2734,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2745,10 +2745,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2791,10 +2791,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -2809,7 +2809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2829,18 +2829,18 @@
         <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -2852,15 +2852,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -2869,7 +2869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K16" s="5"/>
     </row>
   </sheetData>
@@ -2935,19 +2935,19 @@
       <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -2981,7 +2981,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2992,10 +2992,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3038,10 +3038,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -3056,7 +3056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3076,18 +3076,18 @@
         <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -3099,15 +3099,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -3116,7 +3116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K16" s="5"/>
     </row>
   </sheetData>
